--- a/public/enviar/funcionarios.xlsx
+++ b/public/enviar/funcionarios.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
   <si>
     <t>FECHA</t>
   </si>
@@ -44,172 +44,301 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>2022/08/20</t>
+    <t>2022/08/24</t>
+  </si>
+  <si>
+    <t>GERMÁN ORTÍZ</t>
+  </si>
+  <si>
+    <t>DOCENTE</t>
+  </si>
+  <si>
+    <t>ALEMÁN 302°, 303°, 4°, 5° Y 601°</t>
+  </si>
+  <si>
+    <t>9:28 p.m.</t>
+  </si>
+  <si>
+    <t>9:56 p.m.</t>
+  </si>
+  <si>
+    <t>LUIS FELIPE TALERO</t>
+  </si>
+  <si>
+    <t>DG 402</t>
+  </si>
+  <si>
+    <t>MATEMÁTICAS 4° Y 5°</t>
+  </si>
+  <si>
+    <t>BICICLETA</t>
+  </si>
+  <si>
+    <t>LUZ ÁNGELA GAITÁN</t>
+  </si>
+  <si>
+    <t>DG 601</t>
+  </si>
+  <si>
+    <t>MATEMÁTICAS 6° - 8°</t>
+  </si>
+  <si>
+    <t>INGRESA CON SU HIJO</t>
+  </si>
+  <si>
+    <t>MARCELA PINTO</t>
+  </si>
+  <si>
+    <t>DG 202</t>
+  </si>
+  <si>
+    <t>PRIMER CICLO</t>
+  </si>
+  <si>
+    <t>MARIELA SÁNCHEZ</t>
+  </si>
+  <si>
+    <t>DG 903</t>
+  </si>
+  <si>
+    <t>SOCIALES 9° - 11°/ CIENCIAS POLÍTICAS 10° Y 11°</t>
+  </si>
+  <si>
+    <t>MARITZA ZACIPA</t>
+  </si>
+  <si>
+    <t>TRANSICIÓN 1</t>
+  </si>
+  <si>
+    <t>MARTA EDITH PACHON</t>
+  </si>
+  <si>
+    <t>REEMPLAZOS</t>
+  </si>
+  <si>
+    <t>MARTHA LILIANA GÓMEZ</t>
+  </si>
+  <si>
+    <t>DG 203</t>
+  </si>
+  <si>
+    <t>NANCY MORALES</t>
+  </si>
+  <si>
+    <t>DG 401</t>
+  </si>
+  <si>
+    <t>LENGUA CASTELLANA 4° Y 5°</t>
+  </si>
+  <si>
+    <t>INGRESA CON SUS HIJAS LUCIANA Y PAULA PINZÓN</t>
+  </si>
+  <si>
+    <t>NATALIA CORREDOR</t>
+  </si>
+  <si>
+    <t>DG 1001</t>
+  </si>
+  <si>
+    <t>BIOLOGÍA 903° /QUÍMICA 6° - 11°</t>
+  </si>
+  <si>
+    <t>MÉLIDA TORRES</t>
+  </si>
+  <si>
+    <t>YENNY GÓMEZ</t>
+  </si>
+  <si>
+    <t>DIRECTIVO</t>
+  </si>
+  <si>
+    <t>PSICOLOGÍA</t>
+  </si>
+  <si>
+    <t>ZCP 63E/ MOTO</t>
+  </si>
+  <si>
+    <t>HEIDI RETTBERG</t>
+  </si>
+  <si>
+    <t>EX REPRENTANTE LEGAL</t>
+  </si>
+  <si>
+    <t>NICOL ESTEFAN GARCÍA</t>
+  </si>
+  <si>
+    <t>PSICÓLOGA</t>
+  </si>
+  <si>
+    <t>CLARA DUEÑAS</t>
+  </si>
+  <si>
+    <t>ASESORA RECTORÍA</t>
+  </si>
+  <si>
+    <t>XIOMARA CASTRO</t>
+  </si>
+  <si>
+    <t>TRANSICIÓN 2</t>
+  </si>
+  <si>
+    <t>SAMANTHA CASAS</t>
+  </si>
+  <si>
+    <t>DG 102</t>
+  </si>
+  <si>
+    <t>SARA LUCÍA VEGA</t>
+  </si>
+  <si>
+    <t>ALEMÁN</t>
+  </si>
+  <si>
+    <t>SEBASTIAN GUTIERREZ</t>
+  </si>
+  <si>
+    <t>FILOSOFIA Y ETICA</t>
+  </si>
+  <si>
+    <t>LUZ MARINA FAJARDO</t>
+  </si>
+  <si>
+    <t>SISTEMAS</t>
+  </si>
+  <si>
+    <t>YULIANA MORALES</t>
+  </si>
+  <si>
+    <t>DG 201</t>
+  </si>
+  <si>
+    <t>CAROLINA PINEDA</t>
+  </si>
+  <si>
+    <t>ADMINISTRATIVO</t>
+  </si>
+  <si>
+    <t>SECRETARIA GENERAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIZABETH SÁNCHEZ </t>
+  </si>
+  <si>
+    <t>SECRETARIA ACADÉMICA</t>
+  </si>
+  <si>
+    <t>LORENA GÓMEZ</t>
+  </si>
+  <si>
+    <t>ENFERMERA</t>
+  </si>
+  <si>
+    <t>ALEIDER BOBADILLA</t>
+  </si>
+  <si>
+    <t>SERVICIOS GENERALES</t>
+  </si>
+  <si>
+    <t>DWD 036/MOTO</t>
+  </si>
+  <si>
+    <t>INGRESA CON SU HIJA MARÍA JOSÉ AUTORIZADO POR R.H.</t>
+  </si>
+  <si>
+    <t>MARTA REYES</t>
+  </si>
+  <si>
+    <t>BIBLIOTECARIA</t>
+  </si>
+  <si>
+    <t>BERTILDE QUINTERO</t>
+  </si>
+  <si>
+    <t>CONFIANZA EXTREMA</t>
+  </si>
+  <si>
+    <t>ISABEL MIGUEZ</t>
+  </si>
+  <si>
+    <t>PATRICIA SOTO</t>
+  </si>
+  <si>
+    <t>ADRIANA SILVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>MARÍA EUGENIA GARCÍA</t>
+  </si>
+  <si>
+    <t>FUNCIONARIO CAFETERÍA</t>
+  </si>
+  <si>
+    <t>FUNCIONARIA</t>
+  </si>
+  <si>
+    <t>LUZ ESTELLA CHINCHILLA</t>
+  </si>
+  <si>
+    <t>STELLA MANCERA</t>
+  </si>
+  <si>
+    <t>ENCARGADA</t>
+  </si>
+  <si>
+    <t>LUZ MARINA NEIZA</t>
+  </si>
+  <si>
+    <t>MENSAJERÍA</t>
+  </si>
+  <si>
+    <t>MENSAJERA</t>
+  </si>
+  <si>
+    <t>ÁLVARO PINZÓN</t>
+  </si>
+  <si>
+    <t>FUNCIONARIO EXTERNO</t>
+  </si>
+  <si>
+    <t>INGENIERO</t>
+  </si>
+  <si>
+    <t>WGF 46F/MOTO</t>
+  </si>
+  <si>
+    <t>DAMAR NARVÁEZ</t>
+  </si>
+  <si>
+    <t>SEGURIDAD</t>
+  </si>
+  <si>
+    <t>S GHIA</t>
   </si>
   <si>
     <t>JAVIER RODRÍGUEZ</t>
   </si>
   <si>
-    <t>SEGURIDAD</t>
-  </si>
-  <si>
-    <t>S GHIA</t>
-  </si>
-  <si>
-    <t>6:00 a.m.</t>
-  </si>
-  <si>
-    <t>6:00 p.m.</t>
-  </si>
-  <si>
-    <t>BERTILDE QUINTERO</t>
-  </si>
-  <si>
-    <t>SERVICIOS GENERALES</t>
-  </si>
-  <si>
-    <t>CONFIANZA EXTREMA</t>
-  </si>
-  <si>
-    <t>6:33 a.m.</t>
-  </si>
-  <si>
-    <t>12:30 p.m.</t>
-  </si>
-  <si>
-    <t>ADRIANA SILVA</t>
-  </si>
-  <si>
-    <t>6:43 a.m.</t>
-  </si>
-  <si>
-    <t>ISABEL MIGUEZ</t>
-  </si>
-  <si>
-    <t>TRANSITO CASTILLO</t>
-  </si>
-  <si>
-    <t>6:49 a.m.</t>
-  </si>
-  <si>
-    <t>PATRICIA SOTO</t>
-  </si>
-  <si>
-    <t>6:51 a.m.</t>
-  </si>
-  <si>
-    <t>LUZ ESTELLA FIGUEROA</t>
-  </si>
-  <si>
-    <t>7:06 a.m.</t>
-  </si>
-  <si>
-    <t>YENNY GÓMEZ</t>
-  </si>
-  <si>
-    <t>DIRECTIVO</t>
-  </si>
-  <si>
-    <t>PSICOLOGÍA</t>
-  </si>
-  <si>
-    <t>7:14 a.m.</t>
-  </si>
-  <si>
-    <t>11:37 a.m.</t>
-  </si>
-  <si>
-    <t>ZCP 63E/ MOTO</t>
-  </si>
-  <si>
-    <t>REUNION SEGUNDO (2)  PROSECESO DE ADMICION</t>
-  </si>
-  <si>
-    <t>NICOL ESTEFAN GARCÍA</t>
-  </si>
-  <si>
-    <t>PSICÓLOGA</t>
-  </si>
-  <si>
-    <t>11:23 a.m.</t>
-  </si>
-  <si>
-    <t>ÁLVARO PINZÓN</t>
-  </si>
-  <si>
-    <t>FUNCIONARIO EXTERNO</t>
-  </si>
-  <si>
-    <t>INGENIERO</t>
-  </si>
-  <si>
-    <t>7:17 a.m.</t>
-  </si>
-  <si>
-    <t>11:15 a.m.</t>
-  </si>
-  <si>
-    <t>WGF 46F/MOTO</t>
-  </si>
-  <si>
-    <t>JUAN RICARDO TORRES</t>
-  </si>
-  <si>
-    <t>RECTOR</t>
-  </si>
-  <si>
-    <t>7:25 a.m.</t>
-  </si>
-  <si>
-    <t>FYT 17C/ MOTO</t>
-  </si>
-  <si>
-    <t>JHON TRUJILLO</t>
-  </si>
-  <si>
-    <t>7:30 a.m.</t>
-  </si>
-  <si>
-    <t>RELEVANTE  NOCTURNO</t>
-  </si>
-  <si>
-    <t>JEIMY SOLORZA</t>
-  </si>
-  <si>
-    <t>COORDINACIÓN ACADÉMICA</t>
-  </si>
-  <si>
-    <t>7:31 a.m.</t>
-  </si>
-  <si>
-    <t>11:22 a.m.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELIZABETH SÁNCHEZ </t>
-  </si>
-  <si>
-    <t>ADMINISTRATIVO</t>
-  </si>
-  <si>
-    <t>SECRETARIA ACADÉMICA</t>
-  </si>
-  <si>
-    <t>7:43 a.m.</t>
-  </si>
-  <si>
-    <t>11:26 a.m.</t>
-  </si>
-  <si>
-    <t>ALEIDER BOBADILLA</t>
-  </si>
-  <si>
-    <t>5:08 a.m.</t>
-  </si>
-  <si>
-    <t>1:00 p.m.</t>
-  </si>
-  <si>
-    <t>DWD 036/MOTO</t>
+    <t>PERO</t>
+  </si>
+  <si>
+    <t>ADRIANA GÓMEZ</t>
+  </si>
+  <si>
+    <t>REPRESENTANTE LEGAL</t>
+  </si>
+  <si>
+    <t>10:13 p.m.</t>
+  </si>
+  <si>
+    <t>DAVID CUELLO</t>
+  </si>
+  <si>
+    <t>COORDINACIÓN CONVIVENCIA</t>
+  </si>
+  <si>
+    <t>YJE 30F/ MOTO</t>
   </si>
 </sst>
 </file>
@@ -255,7 +384,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +401,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FFBDD7EE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -295,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -306,6 +441,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -607,10 +745,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A16" sqref="A16:I16"/>
+      <selection activeCell="A40" sqref="A40:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -665,14 +803,14 @@
       <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="2"/>
@@ -686,19 +824,23 @@
         <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
@@ -706,43 +848,49 @@
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -752,20 +900,22 @@
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -775,20 +925,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -798,74 +950,74 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="E9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>38</v>
+      <c r="F10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -876,21 +1028,21 @@
         <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
@@ -898,76 +1050,68 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="F12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2" t="s">
-        <v>51</v>
-      </c>
+      <c r="H13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -975,52 +1119,610 @@
         <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="E22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
